--- a/data/trans_orig/IP04F-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP04F-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80B896C5-B9B4-4200-A8EE-6FEEFB531DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7187667C-82ED-420D-991C-387D44ECCD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7E37953A-B363-4DB4-BE61-6733E435764D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E12489F-1E39-4E07-B97D-F05B93CD5A45}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>994.0</t>
@@ -94,7 +94,7 @@
     <t>95,46%</t>
   </si>
   <si>
-    <t>77,5%</t>
+    <t>75,44%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -103,16 +103,13 @@
     <t>92,14%</t>
   </si>
   <si>
-    <t>75,81%</t>
+    <t>71,53%</t>
   </si>
   <si>
     <t>93,91%</t>
   </si>
   <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>84,56%</t>
   </si>
   <si>
     <t>Si</t>
@@ -121,28 +118,25 @@
     <t>4,54%</t>
   </si>
   <si>
-    <t>22,5%</t>
+    <t>24,56%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>24,19%</t>
+    <t>28,47%</t>
   </si>
   <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>15,44%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,05%</t>
@@ -157,10 +151,10 @@
     <t>91,8%</t>
   </si>
   <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
   </si>
   <si>
     <t>93,73%</t>
@@ -169,508 +163,520 @@
     <t>89,5%</t>
   </si>
   <si>
-    <t>97,0%</t>
+    <t>96,91%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>89,83%</t>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si posee otra vivienda que se pueda utilizar como residencia aunque no la utilice habitualmente en 2016 (Tasa respuesta: 99,15%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si posee otra vivienda que se pueda utilizar como residencia aunque no la utilice habitualmente en 2015 (Tasa respuesta: 99,15%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>91,18%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>5,8%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -682,109 +688,103 @@
     <t>91,94%</t>
   </si>
   <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>86,98%</t>
   </si>
   <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>92,19%</t>
   </si>
   <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>91,1%</t>
   </si>
   <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>91,66%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>Población según si posee otra vivienda que se pueda utilizar como residencia aunque no la utilice habitualmente en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1283,7 +1283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB82F201-EC0D-4A43-A67E-763CBDE9F77A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F28DEE-541B-46D8-AD9E-D54FDD5D794F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1494,13 +1494,13 @@
         <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1509,13 +1509,13 @@
         <v>1155</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -1524,13 +1524,13 @@
         <v>1757</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -1539,13 +1539,13 @@
         <v>2913</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,13 +1560,13 @@
         <v>25455</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -1575,13 +1575,13 @@
         <v>22373</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -1590,18 +1590,18 @@
         <v>47828</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1619,37 +1619,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,13 +1664,13 @@
         <v>117441</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H9" s="7">
         <v>150</v>
@@ -1679,13 +1679,13 @@
         <v>107394</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>316</v>
@@ -1694,19 +1694,19 @@
         <v>224834</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>15</v>
@@ -1715,13 +1715,13 @@
         <v>10490</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -1730,13 +1730,13 @@
         <v>7180</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -1745,13 +1745,13 @@
         <v>17670</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,13 +1766,13 @@
         <v>127931</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7">
         <v>160</v>
@@ -1781,13 +1781,13 @@
         <v>114574</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
         <v>341</v>
@@ -1796,18 +1796,18 @@
         <v>242504</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1825,7 +1825,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1870,13 @@
         <v>205122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
         <v>285</v>
@@ -1885,13 +1885,13 @@
         <v>184647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>582</v>
@@ -1900,19 +1900,19 @@
         <v>389769</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>26</v>
@@ -1921,13 +1921,13 @@
         <v>17926</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -1936,13 +1936,13 @@
         <v>20408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -1951,13 +1951,13 @@
         <v>38335</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1972,13 @@
         <v>223048</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7">
         <v>317</v>
@@ -1987,13 +1987,13 @@
         <v>205055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
         <v>640</v>
@@ -2002,18 +2002,18 @@
         <v>428104</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2031,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,13 +2076,13 @@
         <v>147249</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>218</v>
@@ -2091,13 +2091,13 @@
         <v>139980</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>445</v>
@@ -2106,19 +2106,19 @@
         <v>287229</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>27</v>
@@ -2127,13 +2127,13 @@
         <v>18267</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -2142,13 +2142,13 @@
         <v>15396</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -2157,13 +2157,13 @@
         <v>33663</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,13 +2178,13 @@
         <v>165516</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7">
         <v>242</v>
@@ -2193,13 +2193,13 @@
         <v>155376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M19" s="7">
         <v>496</v>
@@ -2208,18 +2208,18 @@
         <v>320892</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2237,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,13 +2282,13 @@
         <v>188223</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7">
         <v>234</v>
@@ -2297,13 +2297,13 @@
         <v>178272</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M21" s="7">
         <v>490</v>
@@ -2312,19 +2312,19 @@
         <v>366495</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
         <v>26</v>
@@ -2333,13 +2333,13 @@
         <v>19396</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -2348,13 +2348,13 @@
         <v>28387</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -2363,13 +2363,13 @@
         <v>47783</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2384,13 @@
         <v>207619</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H23" s="7">
         <v>271</v>
@@ -2399,13 +2399,13 @@
         <v>206659</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M23" s="7">
         <v>553</v>
@@ -2414,13 +2414,13 @@
         <v>414278</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,7 +2443,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2488,13 @@
         <v>682333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>911</v>
@@ -2503,13 +2503,13 @@
         <v>630907</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>1884</v>
@@ -2518,19 +2518,19 @@
         <v>1313241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>95</v>
@@ -2539,13 +2539,13 @@
         <v>67235</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -2554,13 +2554,13 @@
         <v>73130</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>200</v>
@@ -2569,13 +2569,13 @@
         <v>140364</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2590,13 @@
         <v>749568</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H27" s="7">
         <v>1016</v>
@@ -2605,13 +2605,13 @@
         <v>704037</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M27" s="7">
         <v>2084</v>
@@ -2620,18 +2620,18 @@
         <v>1453605</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2652,7 +2652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F07093-916A-4B7D-9EEF-058CF8B21545}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5E7346-20F3-41D4-8D4F-6A764623CAB0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2669,7 +2669,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2782,7 +2782,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2827,10 +2827,10 @@
         <v>24303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2845,10 +2845,10 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -2857,10 +2857,10 @@
         <v>46830</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2869,7 +2869,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -2878,13 +2878,13 @@
         <v>1271</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -2908,13 +2908,13 @@
         <v>1271</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2929,13 @@
         <v>25574</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -2944,13 +2944,13 @@
         <v>22527</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -2959,18 +2959,18 @@
         <v>48101</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2988,7 +2988,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3033,13 @@
         <v>113804</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H9" s="7">
         <v>145</v>
@@ -3048,13 +3048,13 @@
         <v>99432</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M9" s="7">
         <v>298</v>
@@ -3063,19 +3063,19 @@
         <v>213235</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>10</v>
@@ -3084,13 +3084,13 @@
         <v>7272</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -3099,13 +3099,13 @@
         <v>10554</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3114,13 +3114,13 @@
         <v>17826</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3135,13 @@
         <v>121076</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7">
         <v>161</v>
@@ -3150,13 +3150,13 @@
         <v>109986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
         <v>324</v>
@@ -3165,18 +3165,18 @@
         <v>231061</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3194,7 +3194,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3224,7 +3224,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3239,13 @@
         <v>203048</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>307</v>
@@ -3254,13 +3254,13 @@
         <v>190893</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>608</v>
@@ -3269,19 +3269,19 @@
         <v>393940</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>26</v>
@@ -3290,13 +3290,13 @@
         <v>17973</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -3305,13 +3305,13 @@
         <v>14062</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -3320,13 +3320,13 @@
         <v>32035</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3341,13 @@
         <v>221021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7">
         <v>330</v>
@@ -3356,13 +3356,13 @@
         <v>204955</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
         <v>657</v>
@@ -3371,18 +3371,18 @@
         <v>425975</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3400,37 +3400,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3445,13 @@
         <v>150160</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>239</v>
@@ -3460,13 +3460,13 @@
         <v>144341</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>462</v>
@@ -3475,10 +3475,10 @@
         <v>294501</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>203</v>
@@ -3487,7 +3487,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>22</v>
@@ -3496,13 +3496,13 @@
         <v>14517</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3511,13 +3511,13 @@
         <v>10663</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -3526,13 +3526,13 @@
         <v>25181</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3547,13 @@
         <v>164677</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7">
         <v>257</v>
@@ -3562,13 +3562,13 @@
         <v>155004</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M19" s="7">
         <v>502</v>
@@ -3577,18 +3577,18 @@
         <v>319682</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3606,7 +3606,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3621,7 +3621,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3651,13 @@
         <v>189152</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H21" s="7">
         <v>244</v>
@@ -3666,13 +3666,13 @@
         <v>180404</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M21" s="7">
         <v>509</v>
@@ -3681,19 +3681,19 @@
         <v>369556</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
         <v>25</v>
@@ -3702,13 +3702,13 @@
         <v>16584</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3717,13 +3717,13 @@
         <v>27016</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -3732,7 +3732,7 @@
         <v>43600</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>229</v>
@@ -3753,13 +3753,13 @@
         <v>205736</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H23" s="7">
         <v>281</v>
@@ -3768,13 +3768,13 @@
         <v>207420</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M23" s="7">
         <v>571</v>
@@ -3783,13 +3783,13 @@
         <v>413156</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3812,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,7 +3899,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>85</v>
@@ -3959,13 +3959,13 @@
         <v>738083</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H27" s="7">
         <v>1053</v>
@@ -3974,13 +3974,13 @@
         <v>699892</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M27" s="7">
         <v>2108</v>
@@ -3989,18 +3989,18 @@
         <v>1437975</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4021,7 +4021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BDB069-9D37-4A2B-8598-6E3838AB47C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F36254F-1AD9-4B1E-80C7-79BA1D0ED7ED}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4151,7 +4151,7 @@
         <v>250</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -4166,7 +4166,7 @@
         <v>251</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -4181,7 +4181,7 @@
         <v>252</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,7 +4238,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4298,13 +4298,13 @@
         <v>12698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -4313,13 +4313,13 @@
         <v>16787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -4328,18 +4328,18 @@
         <v>29485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4357,7 +4357,7 @@
         <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
         <v>168</v>
@@ -4372,7 +4372,7 @@
         <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7">
         <v>320</v>
@@ -4387,7 +4387,7 @@
         <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4438,13 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4504,13 @@
         <v>114596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7">
         <v>168</v>
@@ -4519,13 +4519,13 @@
         <v>103895</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
         <v>320</v>
@@ -4534,18 +4534,18 @@
         <v>218490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4563,7 +4563,7 @@
         <v>260</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" s="7">
         <v>280</v>
@@ -4578,7 +4578,7 @@
         <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M12" s="7">
         <v>623</v>
@@ -4593,7 +4593,7 @@
         <v>262</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,7 +4614,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4629,7 +4629,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4650,7 +4650,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4680,7 +4680,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4710,13 +4710,13 @@
         <v>250186</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7">
         <v>280</v>
@@ -4725,13 +4725,13 @@
         <v>192352</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
         <v>623</v>
@@ -4740,18 +4740,18 @@
         <v>442538</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4769,7 +4769,7 @@
         <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16" s="7">
         <v>227</v>
@@ -4784,7 +4784,7 @@
         <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M16" s="7">
         <v>452</v>
@@ -4799,7 +4799,7 @@
         <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,7 +4856,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -4916,13 +4916,13 @@
         <v>173208</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7">
         <v>227</v>
@@ -4931,13 +4931,13 @@
         <v>168735</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M19" s="7">
         <v>452</v>
@@ -4946,18 +4946,18 @@
         <v>341943</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4975,7 +4975,7 @@
         <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -4990,7 +4990,7 @@
         <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M20" s="7">
         <v>478</v>
@@ -5005,7 +5005,7 @@
         <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,7 +5062,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -5122,13 +5122,13 @@
         <v>175016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H23" s="7">
         <v>240</v>
@@ -5137,13 +5137,13 @@
         <v>171943</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M23" s="7">
         <v>478</v>
@@ -5152,13 +5152,13 @@
         <v>346958</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,7 +5181,7 @@
         <v>274</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H24" s="7">
         <v>943</v>
@@ -5196,7 +5196,7 @@
         <v>274</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M24" s="7">
         <v>1920</v>
@@ -5211,7 +5211,7 @@
         <v>275</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,7 +5268,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -5328,13 +5328,13 @@
         <v>725704</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H27" s="7">
         <v>943</v>
@@ -5343,13 +5343,13 @@
         <v>653712</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M27" s="7">
         <v>1920</v>
@@ -5358,18 +5358,18 @@
         <v>1379416</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
